--- a/data/SO/SteuerfussSO.xlsx
+++ b/data/SO/SteuerfussSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\private\PensionTools\data\SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C8DA1D-81F5-4C7A-9989-3113AB1F39F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23AE587-4008-4114-863C-AA9B91CEE685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -381,10 +381,14 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="5" max="5" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
@@ -432,7 +436,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -464,7 +468,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -496,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -528,7 +532,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <v>100</v>

--- a/data/SO/SteuerfussSO.xlsx
+++ b/data/SO/SteuerfussSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\private\PensionTools\data\SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23AE587-4008-4114-863C-AA9B91CEE685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598CB20-BBD7-4F1A-BD81-113149CCEEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Kanton</t>
   </si>
@@ -67,6 +69,9 @@
   </si>
   <si>
     <t>Solothurn</t>
+  </si>
+  <si>
+    <t>Personensteuer</t>
   </si>
 </sst>
 </file>
@@ -378,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6439AF7-483B-4E31-894C-6B5766D16518}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
@@ -390,7 +395,7 @@
     <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -419,10 +424,13 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A2">
         <v>2526</v>
       </c>
@@ -451,10 +459,13 @@
         <v>19</v>
       </c>
       <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A3">
         <v>2526</v>
       </c>
@@ -483,10 +494,13 @@
         <v>19</v>
       </c>
       <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A4">
         <v>2601</v>
       </c>
@@ -515,10 +529,13 @@
         <v>19</v>
       </c>
       <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A5">
         <v>2601</v>
       </c>
@@ -547,6 +564,9 @@
         <v>19</v>
       </c>
       <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>

--- a/data/SO/SteuerfussSO.xlsx
+++ b/data/SO/SteuerfussSO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\private\PensionTools\data\SO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C8DA1D-81F5-4C7A-9989-3113AB1F39F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598CB20-BBD7-4F1A-BD81-113149CCEEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Kanton</t>
   </si>
@@ -67,6 +69,9 @@
   </si>
   <si>
     <t>Solothurn</t>
+  </si>
+  <si>
+    <t>Personensteuer</t>
   </si>
 </sst>
 </file>
@@ -378,15 +383,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6439AF7-483B-4E31-894C-6B5766D16518}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="5" max="5" width="15.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -415,10 +424,13 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A2">
         <v>2526</v>
       </c>
@@ -432,7 +444,7 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -447,10 +459,13 @@
         <v>19</v>
       </c>
       <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A3">
         <v>2526</v>
       </c>
@@ -464,7 +479,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -479,10 +494,13 @@
         <v>19</v>
       </c>
       <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A4">
         <v>2601</v>
       </c>
@@ -496,7 +514,7 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -511,10 +529,13 @@
         <v>19</v>
       </c>
       <c r="J4">
+        <v>20</v>
+      </c>
+      <c r="K4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.65">
       <c r="A5">
         <v>2601</v>
       </c>
@@ -528,7 +549,7 @@
         <v>12</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -543,6 +564,9 @@
         <v>19</v>
       </c>
       <c r="J5">
+        <v>20</v>
+      </c>
+      <c r="K5">
         <v>0</v>
       </c>
     </row>
